--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3846.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3846.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.040993100761817</v>
+        <v>2.924774646759033</v>
       </c>
       <c r="B1">
-        <v>1.47550378547735</v>
+        <v>5.862129211425781</v>
       </c>
       <c r="C1">
-        <v>2.774012603233893</v>
+        <v>6.59728479385376</v>
       </c>
       <c r="D1">
-        <v>4.760694844841381</v>
+        <v>7.048226356506348</v>
       </c>
       <c r="E1">
-        <v>2.382749177854521</v>
+        <v>4.171567916870117</v>
       </c>
     </row>
   </sheetData>
